--- a/InputData/fuels/MPIiFP/Max Perc Inc in Fuel Production.xlsx
+++ b/InputData/fuels/MPIiFP/Max Perc Inc in Fuel Production.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\fuels\MPIiFP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anima\OneDrive\Desktop\Models\eps-brazil-cpl2\InputData\fuels\MPIiFP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EC2BEF-E59E-4EF2-B857-643AABE6D9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28185" windowHeight="12510"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,20 +171,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -465,19 +463,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,37 +483,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -527,235 +525,357 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AI22"/>
+  <dimension ref="A1:BC22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="BC20" sqref="BC20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="3">
         <v>2017</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1">
         <v>2018</v>
       </c>
       <c r="D1" s="3">
         <v>2019</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1">
         <v>2020</v>
       </c>
       <c r="F1" s="3">
         <v>2021</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1">
         <v>2022</v>
       </c>
       <c r="H1" s="3">
         <v>2023</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1">
         <v>2024</v>
       </c>
       <c r="J1" s="3">
         <v>2025</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1">
         <v>2026</v>
       </c>
       <c r="L1" s="3">
         <v>2027</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1">
         <v>2028</v>
       </c>
       <c r="N1" s="3">
         <v>2029</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1">
         <v>2030</v>
       </c>
       <c r="P1" s="3">
         <v>2031</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1">
         <v>2032</v>
       </c>
       <c r="R1" s="3">
         <v>2033</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1">
         <v>2034</v>
       </c>
       <c r="T1" s="3">
         <v>2035</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1">
         <v>2036</v>
       </c>
       <c r="V1" s="3">
         <v>2037</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1">
         <v>2038</v>
       </c>
       <c r="X1" s="3">
         <v>2039</v>
       </c>
-      <c r="Y1" s="4">
+      <c r="Y1">
         <v>2040</v>
       </c>
       <c r="Z1" s="3">
         <v>2041</v>
       </c>
-      <c r="AA1" s="4">
+      <c r="AA1">
         <v>2042</v>
       </c>
       <c r="AB1" s="3">
         <v>2043</v>
       </c>
-      <c r="AC1" s="4">
+      <c r="AC1">
         <v>2044</v>
       </c>
       <c r="AD1" s="3">
         <v>2045</v>
       </c>
-      <c r="AE1" s="4">
+      <c r="AE1">
         <v>2046</v>
       </c>
       <c r="AF1" s="3">
         <v>2047</v>
       </c>
-      <c r="AG1" s="4">
+      <c r="AG1">
         <v>2048</v>
       </c>
       <c r="AH1" s="3">
         <v>2049</v>
       </c>
-      <c r="AI1" s="4">
+      <c r="AI1">
         <v>2050</v>
       </c>
+      <c r="AJ1" s="3">
+        <v>2051</v>
+      </c>
+      <c r="AK1">
+        <v>2052</v>
+      </c>
+      <c r="AL1" s="3">
+        <v>2053</v>
+      </c>
+      <c r="AM1">
+        <v>2054</v>
+      </c>
+      <c r="AN1" s="3">
+        <v>2055</v>
+      </c>
+      <c r="AO1">
+        <v>2056</v>
+      </c>
+      <c r="AP1" s="3">
+        <v>2057</v>
+      </c>
+      <c r="AQ1">
+        <v>2058</v>
+      </c>
+      <c r="AR1" s="3">
+        <v>2059</v>
+      </c>
+      <c r="AS1">
+        <v>2060</v>
+      </c>
+      <c r="AT1" s="3">
+        <v>2061</v>
+      </c>
+      <c r="AU1">
+        <v>2062</v>
+      </c>
+      <c r="AV1" s="3">
+        <v>2063</v>
+      </c>
+      <c r="AW1">
+        <v>2064</v>
+      </c>
+      <c r="AX1" s="3">
+        <v>2065</v>
+      </c>
+      <c r="AY1">
+        <v>2066</v>
+      </c>
+      <c r="AZ1" s="3">
+        <v>2067</v>
+      </c>
+      <c r="BA1">
+        <v>2068</v>
+      </c>
+      <c r="BB1" s="3">
+        <v>2069</v>
+      </c>
+      <c r="BC1">
+        <v>2070</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>0</v>
-      </c>
-      <c r="R2" s="6">
-        <v>0</v>
-      </c>
-      <c r="S2" s="6">
-        <v>0</v>
-      </c>
-      <c r="T2" s="6">
-        <v>0</v>
-      </c>
-      <c r="U2" s="6">
-        <v>0</v>
-      </c>
-      <c r="V2" s="6">
-        <v>0</v>
-      </c>
-      <c r="W2" s="6">
-        <v>0</v>
-      </c>
-      <c r="X2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="6">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
@@ -860,9 +980,69 @@
       <c r="AI3">
         <v>999</v>
       </c>
+      <c r="AJ3">
+        <v>999</v>
+      </c>
+      <c r="AK3">
+        <v>999</v>
+      </c>
+      <c r="AL3">
+        <v>999</v>
+      </c>
+      <c r="AM3">
+        <v>999</v>
+      </c>
+      <c r="AN3">
+        <v>999</v>
+      </c>
+      <c r="AO3">
+        <v>999</v>
+      </c>
+      <c r="AP3">
+        <v>999</v>
+      </c>
+      <c r="AQ3">
+        <v>999</v>
+      </c>
+      <c r="AR3">
+        <v>999</v>
+      </c>
+      <c r="AS3">
+        <v>999</v>
+      </c>
+      <c r="AT3">
+        <v>999</v>
+      </c>
+      <c r="AU3">
+        <v>999</v>
+      </c>
+      <c r="AV3">
+        <v>999</v>
+      </c>
+      <c r="AW3">
+        <v>999</v>
+      </c>
+      <c r="AX3">
+        <v>999</v>
+      </c>
+      <c r="AY3">
+        <v>999</v>
+      </c>
+      <c r="AZ3">
+        <v>999</v>
+      </c>
+      <c r="BA3">
+        <v>999</v>
+      </c>
+      <c r="BB3">
+        <v>999</v>
+      </c>
+      <c r="BC3">
+        <v>999</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
@@ -967,9 +1147,69 @@
       <c r="AI4">
         <v>999</v>
       </c>
+      <c r="AJ4">
+        <v>999</v>
+      </c>
+      <c r="AK4">
+        <v>999</v>
+      </c>
+      <c r="AL4">
+        <v>999</v>
+      </c>
+      <c r="AM4">
+        <v>999</v>
+      </c>
+      <c r="AN4">
+        <v>999</v>
+      </c>
+      <c r="AO4">
+        <v>999</v>
+      </c>
+      <c r="AP4">
+        <v>999</v>
+      </c>
+      <c r="AQ4">
+        <v>999</v>
+      </c>
+      <c r="AR4">
+        <v>999</v>
+      </c>
+      <c r="AS4">
+        <v>999</v>
+      </c>
+      <c r="AT4">
+        <v>999</v>
+      </c>
+      <c r="AU4">
+        <v>999</v>
+      </c>
+      <c r="AV4">
+        <v>999</v>
+      </c>
+      <c r="AW4">
+        <v>999</v>
+      </c>
+      <c r="AX4">
+        <v>999</v>
+      </c>
+      <c r="AY4">
+        <v>999</v>
+      </c>
+      <c r="AZ4">
+        <v>999</v>
+      </c>
+      <c r="BA4">
+        <v>999</v>
+      </c>
+      <c r="BB4">
+        <v>999</v>
+      </c>
+      <c r="BC4">
+        <v>999</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
@@ -1074,330 +1314,570 @@
       <c r="AI5">
         <v>999</v>
       </c>
+      <c r="AJ5">
+        <v>999</v>
+      </c>
+      <c r="AK5">
+        <v>999</v>
+      </c>
+      <c r="AL5">
+        <v>999</v>
+      </c>
+      <c r="AM5">
+        <v>999</v>
+      </c>
+      <c r="AN5">
+        <v>999</v>
+      </c>
+      <c r="AO5">
+        <v>999</v>
+      </c>
+      <c r="AP5">
+        <v>999</v>
+      </c>
+      <c r="AQ5">
+        <v>999</v>
+      </c>
+      <c r="AR5">
+        <v>999</v>
+      </c>
+      <c r="AS5">
+        <v>999</v>
+      </c>
+      <c r="AT5">
+        <v>999</v>
+      </c>
+      <c r="AU5">
+        <v>999</v>
+      </c>
+      <c r="AV5">
+        <v>999</v>
+      </c>
+      <c r="AW5">
+        <v>999</v>
+      </c>
+      <c r="AX5">
+        <v>999</v>
+      </c>
+      <c r="AY5">
+        <v>999</v>
+      </c>
+      <c r="AZ5">
+        <v>999</v>
+      </c>
+      <c r="BA5">
+        <v>999</v>
+      </c>
+      <c r="BB5">
+        <v>999</v>
+      </c>
+      <c r="BC5">
+        <v>999</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>0</v>
-      </c>
-      <c r="R6" s="6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="6">
-        <v>0</v>
-      </c>
-      <c r="T6" s="6">
-        <v>0</v>
-      </c>
-      <c r="U6" s="6">
-        <v>0</v>
-      </c>
-      <c r="V6" s="6">
-        <v>0</v>
-      </c>
-      <c r="W6" s="6">
-        <v>0</v>
-      </c>
-      <c r="X6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="6">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>0</v>
-      </c>
-      <c r="R7" s="6">
-        <v>0</v>
-      </c>
-      <c r="S7" s="6">
-        <v>0</v>
-      </c>
-      <c r="T7" s="6">
-        <v>0</v>
-      </c>
-      <c r="U7" s="6">
-        <v>0</v>
-      </c>
-      <c r="V7" s="6">
-        <v>0</v>
-      </c>
-      <c r="W7" s="6">
-        <v>0</v>
-      </c>
-      <c r="X7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="6">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-      <c r="R8" s="6">
-        <v>0</v>
-      </c>
-      <c r="S8" s="6">
-        <v>0</v>
-      </c>
-      <c r="T8" s="6">
-        <v>0</v>
-      </c>
-      <c r="U8" s="6">
-        <v>0</v>
-      </c>
-      <c r="V8" s="6">
-        <v>0</v>
-      </c>
-      <c r="W8" s="6">
-        <v>0</v>
-      </c>
-      <c r="X8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="6">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
@@ -1502,9 +1982,69 @@
       <c r="AI9">
         <v>999</v>
       </c>
+      <c r="AJ9">
+        <v>999</v>
+      </c>
+      <c r="AK9">
+        <v>999</v>
+      </c>
+      <c r="AL9">
+        <v>999</v>
+      </c>
+      <c r="AM9">
+        <v>999</v>
+      </c>
+      <c r="AN9">
+        <v>999</v>
+      </c>
+      <c r="AO9">
+        <v>999</v>
+      </c>
+      <c r="AP9">
+        <v>999</v>
+      </c>
+      <c r="AQ9">
+        <v>999</v>
+      </c>
+      <c r="AR9">
+        <v>999</v>
+      </c>
+      <c r="AS9">
+        <v>999</v>
+      </c>
+      <c r="AT9">
+        <v>999</v>
+      </c>
+      <c r="AU9">
+        <v>999</v>
+      </c>
+      <c r="AV9">
+        <v>999</v>
+      </c>
+      <c r="AW9">
+        <v>999</v>
+      </c>
+      <c r="AX9">
+        <v>999</v>
+      </c>
+      <c r="AY9">
+        <v>999</v>
+      </c>
+      <c r="AZ9">
+        <v>999</v>
+      </c>
+      <c r="BA9">
+        <v>999</v>
+      </c>
+      <c r="BB9">
+        <v>999</v>
+      </c>
+      <c r="BC9">
+        <v>999</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
@@ -1609,9 +2149,69 @@
       <c r="AI10">
         <v>999</v>
       </c>
+      <c r="AJ10">
+        <v>999</v>
+      </c>
+      <c r="AK10">
+        <v>999</v>
+      </c>
+      <c r="AL10">
+        <v>999</v>
+      </c>
+      <c r="AM10">
+        <v>999</v>
+      </c>
+      <c r="AN10">
+        <v>999</v>
+      </c>
+      <c r="AO10">
+        <v>999</v>
+      </c>
+      <c r="AP10">
+        <v>999</v>
+      </c>
+      <c r="AQ10">
+        <v>999</v>
+      </c>
+      <c r="AR10">
+        <v>999</v>
+      </c>
+      <c r="AS10">
+        <v>999</v>
+      </c>
+      <c r="AT10">
+        <v>999</v>
+      </c>
+      <c r="AU10">
+        <v>999</v>
+      </c>
+      <c r="AV10">
+        <v>999</v>
+      </c>
+      <c r="AW10">
+        <v>999</v>
+      </c>
+      <c r="AX10">
+        <v>999</v>
+      </c>
+      <c r="AY10">
+        <v>999</v>
+      </c>
+      <c r="AZ10">
+        <v>999</v>
+      </c>
+      <c r="BA10">
+        <v>999</v>
+      </c>
+      <c r="BB10">
+        <v>999</v>
+      </c>
+      <c r="BC10">
+        <v>999</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
@@ -1716,9 +2316,69 @@
       <c r="AI11">
         <v>999</v>
       </c>
+      <c r="AJ11">
+        <v>999</v>
+      </c>
+      <c r="AK11">
+        <v>999</v>
+      </c>
+      <c r="AL11">
+        <v>999</v>
+      </c>
+      <c r="AM11">
+        <v>999</v>
+      </c>
+      <c r="AN11">
+        <v>999</v>
+      </c>
+      <c r="AO11">
+        <v>999</v>
+      </c>
+      <c r="AP11">
+        <v>999</v>
+      </c>
+      <c r="AQ11">
+        <v>999</v>
+      </c>
+      <c r="AR11">
+        <v>999</v>
+      </c>
+      <c r="AS11">
+        <v>999</v>
+      </c>
+      <c r="AT11">
+        <v>999</v>
+      </c>
+      <c r="AU11">
+        <v>999</v>
+      </c>
+      <c r="AV11">
+        <v>999</v>
+      </c>
+      <c r="AW11">
+        <v>999</v>
+      </c>
+      <c r="AX11">
+        <v>999</v>
+      </c>
+      <c r="AY11">
+        <v>999</v>
+      </c>
+      <c r="AZ11">
+        <v>999</v>
+      </c>
+      <c r="BA11">
+        <v>999</v>
+      </c>
+      <c r="BB11">
+        <v>999</v>
+      </c>
+      <c r="BC11">
+        <v>999</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
@@ -1823,9 +2483,69 @@
       <c r="AI12">
         <v>999</v>
       </c>
+      <c r="AJ12">
+        <v>999</v>
+      </c>
+      <c r="AK12">
+        <v>999</v>
+      </c>
+      <c r="AL12">
+        <v>999</v>
+      </c>
+      <c r="AM12">
+        <v>999</v>
+      </c>
+      <c r="AN12">
+        <v>999</v>
+      </c>
+      <c r="AO12">
+        <v>999</v>
+      </c>
+      <c r="AP12">
+        <v>999</v>
+      </c>
+      <c r="AQ12">
+        <v>999</v>
+      </c>
+      <c r="AR12">
+        <v>999</v>
+      </c>
+      <c r="AS12">
+        <v>999</v>
+      </c>
+      <c r="AT12">
+        <v>999</v>
+      </c>
+      <c r="AU12">
+        <v>999</v>
+      </c>
+      <c r="AV12">
+        <v>999</v>
+      </c>
+      <c r="AW12">
+        <v>999</v>
+      </c>
+      <c r="AX12">
+        <v>999</v>
+      </c>
+      <c r="AY12">
+        <v>999</v>
+      </c>
+      <c r="AZ12">
+        <v>999</v>
+      </c>
+      <c r="BA12">
+        <v>999</v>
+      </c>
+      <c r="BB12">
+        <v>999</v>
+      </c>
+      <c r="BC12">
+        <v>999</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
@@ -1930,9 +2650,69 @@
       <c r="AI13">
         <v>999</v>
       </c>
+      <c r="AJ13">
+        <v>999</v>
+      </c>
+      <c r="AK13">
+        <v>999</v>
+      </c>
+      <c r="AL13">
+        <v>999</v>
+      </c>
+      <c r="AM13">
+        <v>999</v>
+      </c>
+      <c r="AN13">
+        <v>999</v>
+      </c>
+      <c r="AO13">
+        <v>999</v>
+      </c>
+      <c r="AP13">
+        <v>999</v>
+      </c>
+      <c r="AQ13">
+        <v>999</v>
+      </c>
+      <c r="AR13">
+        <v>999</v>
+      </c>
+      <c r="AS13">
+        <v>999</v>
+      </c>
+      <c r="AT13">
+        <v>999</v>
+      </c>
+      <c r="AU13">
+        <v>999</v>
+      </c>
+      <c r="AV13">
+        <v>999</v>
+      </c>
+      <c r="AW13">
+        <v>999</v>
+      </c>
+      <c r="AX13">
+        <v>999</v>
+      </c>
+      <c r="AY13">
+        <v>999</v>
+      </c>
+      <c r="AZ13">
+        <v>999</v>
+      </c>
+      <c r="BA13">
+        <v>999</v>
+      </c>
+      <c r="BB13">
+        <v>999</v>
+      </c>
+      <c r="BC13">
+        <v>999</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
@@ -2037,223 +2817,403 @@
       <c r="AI14">
         <v>999</v>
       </c>
+      <c r="AJ14">
+        <v>999</v>
+      </c>
+      <c r="AK14">
+        <v>999</v>
+      </c>
+      <c r="AL14">
+        <v>999</v>
+      </c>
+      <c r="AM14">
+        <v>999</v>
+      </c>
+      <c r="AN14">
+        <v>999</v>
+      </c>
+      <c r="AO14">
+        <v>999</v>
+      </c>
+      <c r="AP14">
+        <v>999</v>
+      </c>
+      <c r="AQ14">
+        <v>999</v>
+      </c>
+      <c r="AR14">
+        <v>999</v>
+      </c>
+      <c r="AS14">
+        <v>999</v>
+      </c>
+      <c r="AT14">
+        <v>999</v>
+      </c>
+      <c r="AU14">
+        <v>999</v>
+      </c>
+      <c r="AV14">
+        <v>999</v>
+      </c>
+      <c r="AW14">
+        <v>999</v>
+      </c>
+      <c r="AX14">
+        <v>999</v>
+      </c>
+      <c r="AY14">
+        <v>999</v>
+      </c>
+      <c r="AZ14">
+        <v>999</v>
+      </c>
+      <c r="BA14">
+        <v>999</v>
+      </c>
+      <c r="BB14">
+        <v>999</v>
+      </c>
+      <c r="BC14">
+        <v>999</v>
+      </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="6">
-        <v>0</v>
-      </c>
-      <c r="S15" s="6">
-        <v>0</v>
-      </c>
-      <c r="T15" s="6">
-        <v>0</v>
-      </c>
-      <c r="U15" s="6">
-        <v>0</v>
-      </c>
-      <c r="V15" s="6">
-        <v>0</v>
-      </c>
-      <c r="W15" s="6">
-        <v>0</v>
-      </c>
-      <c r="X15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="6">
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="6">
-        <v>0</v>
-      </c>
-      <c r="S16" s="6">
-        <v>0</v>
-      </c>
-      <c r="T16" s="6">
-        <v>0</v>
-      </c>
-      <c r="U16" s="6">
-        <v>0</v>
-      </c>
-      <c r="V16" s="6">
-        <v>0</v>
-      </c>
-      <c r="W16" s="6">
-        <v>0</v>
-      </c>
-      <c r="X16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="6">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
@@ -2358,9 +3318,69 @@
       <c r="AI17">
         <v>999</v>
       </c>
+      <c r="AJ17">
+        <v>999</v>
+      </c>
+      <c r="AK17">
+        <v>999</v>
+      </c>
+      <c r="AL17">
+        <v>999</v>
+      </c>
+      <c r="AM17">
+        <v>999</v>
+      </c>
+      <c r="AN17">
+        <v>999</v>
+      </c>
+      <c r="AO17">
+        <v>999</v>
+      </c>
+      <c r="AP17">
+        <v>999</v>
+      </c>
+      <c r="AQ17">
+        <v>999</v>
+      </c>
+      <c r="AR17">
+        <v>999</v>
+      </c>
+      <c r="AS17">
+        <v>999</v>
+      </c>
+      <c r="AT17">
+        <v>999</v>
+      </c>
+      <c r="AU17">
+        <v>999</v>
+      </c>
+      <c r="AV17">
+        <v>999</v>
+      </c>
+      <c r="AW17">
+        <v>999</v>
+      </c>
+      <c r="AX17">
+        <v>999</v>
+      </c>
+      <c r="AY17">
+        <v>999</v>
+      </c>
+      <c r="AZ17">
+        <v>999</v>
+      </c>
+      <c r="BA17">
+        <v>999</v>
+      </c>
+      <c r="BB17">
+        <v>999</v>
+      </c>
+      <c r="BC17">
+        <v>999</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
@@ -2465,9 +3485,69 @@
       <c r="AI18">
         <v>999</v>
       </c>
+      <c r="AJ18">
+        <v>999</v>
+      </c>
+      <c r="AK18">
+        <v>999</v>
+      </c>
+      <c r="AL18">
+        <v>999</v>
+      </c>
+      <c r="AM18">
+        <v>999</v>
+      </c>
+      <c r="AN18">
+        <v>999</v>
+      </c>
+      <c r="AO18">
+        <v>999</v>
+      </c>
+      <c r="AP18">
+        <v>999</v>
+      </c>
+      <c r="AQ18">
+        <v>999</v>
+      </c>
+      <c r="AR18">
+        <v>999</v>
+      </c>
+      <c r="AS18">
+        <v>999</v>
+      </c>
+      <c r="AT18">
+        <v>999</v>
+      </c>
+      <c r="AU18">
+        <v>999</v>
+      </c>
+      <c r="AV18">
+        <v>999</v>
+      </c>
+      <c r="AW18">
+        <v>999</v>
+      </c>
+      <c r="AX18">
+        <v>999</v>
+      </c>
+      <c r="AY18">
+        <v>999</v>
+      </c>
+      <c r="AZ18">
+        <v>999</v>
+      </c>
+      <c r="BA18">
+        <v>999</v>
+      </c>
+      <c r="BB18">
+        <v>999</v>
+      </c>
+      <c r="BC18">
+        <v>999</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
@@ -2572,9 +3652,69 @@
       <c r="AI19">
         <v>999</v>
       </c>
+      <c r="AJ19">
+        <v>999</v>
+      </c>
+      <c r="AK19">
+        <v>999</v>
+      </c>
+      <c r="AL19">
+        <v>999</v>
+      </c>
+      <c r="AM19">
+        <v>999</v>
+      </c>
+      <c r="AN19">
+        <v>999</v>
+      </c>
+      <c r="AO19">
+        <v>999</v>
+      </c>
+      <c r="AP19">
+        <v>999</v>
+      </c>
+      <c r="AQ19">
+        <v>999</v>
+      </c>
+      <c r="AR19">
+        <v>999</v>
+      </c>
+      <c r="AS19">
+        <v>999</v>
+      </c>
+      <c r="AT19">
+        <v>999</v>
+      </c>
+      <c r="AU19">
+        <v>999</v>
+      </c>
+      <c r="AV19">
+        <v>999</v>
+      </c>
+      <c r="AW19">
+        <v>999</v>
+      </c>
+      <c r="AX19">
+        <v>999</v>
+      </c>
+      <c r="AY19">
+        <v>999</v>
+      </c>
+      <c r="AZ19">
+        <v>999</v>
+      </c>
+      <c r="BA19">
+        <v>999</v>
+      </c>
+      <c r="BB19">
+        <v>999</v>
+      </c>
+      <c r="BC19">
+        <v>999</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
@@ -2679,9 +3819,69 @@
       <c r="AI20">
         <v>999</v>
       </c>
+      <c r="AJ20">
+        <v>999</v>
+      </c>
+      <c r="AK20">
+        <v>999</v>
+      </c>
+      <c r="AL20">
+        <v>999</v>
+      </c>
+      <c r="AM20">
+        <v>999</v>
+      </c>
+      <c r="AN20">
+        <v>999</v>
+      </c>
+      <c r="AO20">
+        <v>999</v>
+      </c>
+      <c r="AP20">
+        <v>999</v>
+      </c>
+      <c r="AQ20">
+        <v>999</v>
+      </c>
+      <c r="AR20">
+        <v>999</v>
+      </c>
+      <c r="AS20">
+        <v>999</v>
+      </c>
+      <c r="AT20">
+        <v>999</v>
+      </c>
+      <c r="AU20">
+        <v>999</v>
+      </c>
+      <c r="AV20">
+        <v>999</v>
+      </c>
+      <c r="AW20">
+        <v>999</v>
+      </c>
+      <c r="AX20">
+        <v>999</v>
+      </c>
+      <c r="AY20">
+        <v>999</v>
+      </c>
+      <c r="AZ20">
+        <v>999</v>
+      </c>
+      <c r="BA20">
+        <v>999</v>
+      </c>
+      <c r="BB20">
+        <v>999</v>
+      </c>
+      <c r="BC20">
+        <v>999</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
@@ -2786,9 +3986,69 @@
       <c r="AI21">
         <v>999</v>
       </c>
+      <c r="AJ21">
+        <v>999</v>
+      </c>
+      <c r="AK21">
+        <v>999</v>
+      </c>
+      <c r="AL21">
+        <v>999</v>
+      </c>
+      <c r="AM21">
+        <v>999</v>
+      </c>
+      <c r="AN21">
+        <v>999</v>
+      </c>
+      <c r="AO21">
+        <v>999</v>
+      </c>
+      <c r="AP21">
+        <v>999</v>
+      </c>
+      <c r="AQ21">
+        <v>999</v>
+      </c>
+      <c r="AR21">
+        <v>999</v>
+      </c>
+      <c r="AS21">
+        <v>999</v>
+      </c>
+      <c r="AT21">
+        <v>999</v>
+      </c>
+      <c r="AU21">
+        <v>999</v>
+      </c>
+      <c r="AV21">
+        <v>999</v>
+      </c>
+      <c r="AW21">
+        <v>999</v>
+      </c>
+      <c r="AX21">
+        <v>999</v>
+      </c>
+      <c r="AY21">
+        <v>999</v>
+      </c>
+      <c r="AZ21">
+        <v>999</v>
+      </c>
+      <c r="BA21">
+        <v>999</v>
+      </c>
+      <c r="BB21">
+        <v>999</v>
+      </c>
+      <c r="BC21">
+        <v>999</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
@@ -2891,6 +4151,66 @@
         <v>999</v>
       </c>
       <c r="AI22">
+        <v>999</v>
+      </c>
+      <c r="AJ22">
+        <v>999</v>
+      </c>
+      <c r="AK22">
+        <v>999</v>
+      </c>
+      <c r="AL22">
+        <v>999</v>
+      </c>
+      <c r="AM22">
+        <v>999</v>
+      </c>
+      <c r="AN22">
+        <v>999</v>
+      </c>
+      <c r="AO22">
+        <v>999</v>
+      </c>
+      <c r="AP22">
+        <v>999</v>
+      </c>
+      <c r="AQ22">
+        <v>999</v>
+      </c>
+      <c r="AR22">
+        <v>999</v>
+      </c>
+      <c r="AS22">
+        <v>999</v>
+      </c>
+      <c r="AT22">
+        <v>999</v>
+      </c>
+      <c r="AU22">
+        <v>999</v>
+      </c>
+      <c r="AV22">
+        <v>999</v>
+      </c>
+      <c r="AW22">
+        <v>999</v>
+      </c>
+      <c r="AX22">
+        <v>999</v>
+      </c>
+      <c r="AY22">
+        <v>999</v>
+      </c>
+      <c r="AZ22">
+        <v>999</v>
+      </c>
+      <c r="BA22">
+        <v>999</v>
+      </c>
+      <c r="BB22">
+        <v>999</v>
+      </c>
+      <c r="BC22">
         <v>999</v>
       </c>
     </row>
